--- a/项目管理/进度计划/Demo-里程碑6/里程碑6-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/里程碑6-周版本.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1131">
   <si>
     <t>类别</t>
   </si>
@@ -6223,7 +6223,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6810,60 +6810,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="125">
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="2"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="3"/>
     <cellStyle name="常规 10 2 2 2 2 2" xfId="5"/>
@@ -6882,61 +6935,525 @@
     <cellStyle name="常规 8 2" xfId="17"/>
     <cellStyle name="常规 8 2 2" xfId="18"/>
     <cellStyle name="常规_2-4周版本输出" xfId="4"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="298">
+  <dxfs count="345">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -15648,372 +16165,372 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B116:B119 A113:A123 B113:B114 C113:F123 A124:F130 A14:B14 F7:F8 A16 I8:XFD8 E11:E12 A1:XFD2 B3 I18:XFD18 A18:A19 D19:H19 E30:G31 E32 G32 C35:C39 A36:A39 A33:A34 E33:F33 E35:F39 E34 A22 C33 A41:A42 A66:A68 A55:A56 C55:C56 I57:XFD59 E92:E93 E102 A104:F112 E103:F103 D90 E100 G100 I100:XFD100 D71 C50 F50:XFD51 A152:XFD1048576 C144:XFD151 J131:XFD143 A131:A151 B137:E137 G137:I137 G29 E29 B22:C23 A28:E28 E25:E27 A27 B25:C27 A43:B43 C42:C43 F54:XFD54 E57:G57 A54:C54 E55:XFD56 A76:C103 A75 C75 A69:C74 A6:C8 E13:G13 I13:XFD13 H16 A20:XFD20 A21:G21 D22:H22 A24:XFD24 H41:XFD43 I44:XFD47 E48:XFD48 E49:G49 I49:XFD49 E52:XFD53 E60:XFD61 E62:G64 I62:XFD64 E70:G70 I70:XFD70 E77:G80 H78:H79 E85:G85 I85:XFD85 E86:XFD86 E91:XFD91 E87:G90 I87:XFD90 H88:H89 G96:XFD99 G92:G95 I92:XFD95 H94 A57:C57 F59:G59 C52:C53 A50:B51 B52 A52:A53 E42:G47 A44:C49 D78:D79 D81:D87 E65:M65 O65:XFD65 C66:C68 E66:XFD69 A59:C65 A58:B58 F101:M101 O101:XFD101 G102:XFD130 J6:XFD7 J14:XFD14 J16:XFD16 J19:XFD19 J21:XFD22 G25:H26 J25:XFD26 G27:XFD28 I29:XFD29 H34 J34:XFD34 H36:H38 J36:XFD38 H35:XFD35 H39:XFD39 E71:XFD76 I77:XFD80 E81:XFD84 H30:XFD33">
-    <cfRule type="cellIs" dxfId="297" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="cellIs" dxfId="296" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A13 G11:H12 E3:E5 C13 A3:A5 G9:G10 G3:XFD3 G4:H5 J4:XFD5 I4:I7 J9:XFD12">
-    <cfRule type="cellIs" dxfId="295" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 G23:H23 J23:XFD23">
-    <cfRule type="cellIs" dxfId="294" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 D64 D55:D56 D52">
-    <cfRule type="cellIs" dxfId="293" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="7" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A25:A26 A29:A32">
-    <cfRule type="cellIs" dxfId="292" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="291" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="cellIs" dxfId="290" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="289" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C15:D15 C16 E16 E18:G18 C18 G14:G16">
-    <cfRule type="cellIs" dxfId="288" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C10:D10 F9:F10">
-    <cfRule type="cellIs" dxfId="287" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="286" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="285" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="284" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17 G17:H17 J17:XFD17">
-    <cfRule type="cellIs" dxfId="283" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="282" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="281" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="280" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="279" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="278" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29 C31">
-    <cfRule type="cellIs" dxfId="277" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="276" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="275" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="274" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="273" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="272" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="271" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="270" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="cellIs" dxfId="269" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="268" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="267" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="266" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="265" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="264" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="263" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="262" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="261" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="260" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B31">
-    <cfRule type="cellIs" dxfId="259" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B42">
-    <cfRule type="cellIs" dxfId="258" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B19">
-    <cfRule type="cellIs" dxfId="257" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="256" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="255" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="254" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="253" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="252" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="251" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="49" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="250" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="50" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49 D70">
-    <cfRule type="cellIs" dxfId="249" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="51" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="248" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="52" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:E54">
-    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57 H59">
-    <cfRule type="cellIs" dxfId="246" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="245" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="243" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F100">
-    <cfRule type="cellIs" dxfId="242" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="241" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="240" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="cellIs" dxfId="239" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="238" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="237" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E98">
-    <cfRule type="cellIs" dxfId="236" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="64" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D98">
-    <cfRule type="cellIs" dxfId="235" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="65" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141:I141 C142:I143 B142:B151">
-    <cfRule type="cellIs" dxfId="234" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:C136 D136:I136 B138:I140">
-    <cfRule type="cellIs" dxfId="233" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134 D131:I133 D135:E135 G135:I135">
-    <cfRule type="cellIs" dxfId="232" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="231" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:G134 F135">
-    <cfRule type="cellIs" dxfId="230" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="cellIs" dxfId="229" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58 C58">
-    <cfRule type="cellIs" dxfId="228" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="227" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="73" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="226" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="225" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="224" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16864,7 +17381,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="C29" s="12" t="s">
         <v>17</v>
@@ -21811,202 +22328,202 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B114 B111:B112 A124:F129 A60 C60 A1:XFD2 A23:B23 A33:XFD34 I23:XFD23 A104:B104 A105:F110 E89:G89 F24:XFD24 F6 A6:C6 A14:F19 F54:G55 A53:XFD53 A51 D115:D116 K104:XFD104 G105:XFD129 C111:F113 C114:C119 E114:F123 A123:D123 A111:A122 B120:C121 A74:C89 D75:D76 C71:C73 D79:D81 D83:D86 A54:D55 E11:F13 E10 E20:F20 A20:C20 F25 H25:XFD25 E23:E25 H27:XFD28 E27:F28 E32:XFD32 A32:C32 A61:C65 D62:D64 A68:B73 D68:D73 A52:B52 C51 I47:XFD52 E51:H51 A151:XFD1048576 A130:A150 J130:XFD150 A35:C40 F40:XFD40 E46:XFD46 A48:H50 A47 C47:H47 A46:C46 A41:XFD45 A103:G103 A102 C102:G102 A101:B101 A90:B97 C94:C95 F8 A3:E4 A7:E7 A8:C13 D9:F9 E35:XFD39 E60:G60 G3:XFD4 A5:XFD5 H6:XFD6 G7 I7:XFD7 G8:XFD12 G13 I13:XFD13 G14:XFD18 G19:G20 I19:XFD20 H20:H21 E26:XFD26 E61:XFD62 A66:H66 E68:XFD77 E78:G78 I78:XFD78 E79:XFD86 H88 A98:H98 I97:XFD103 A99:G100 H102:H103 A57:C59 E57:G58 A56:G56 I54:XFD60 E29:XFD30 E63:H65 I63:XFD66 I87:XFD94 I95:J96 A24:C30">
-    <cfRule type="cellIs" dxfId="223" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:D61 D89">
-    <cfRule type="cellIs" dxfId="222" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="221" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="220" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="219" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="218" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:H87 E88:G88">
-    <cfRule type="cellIs" dxfId="217" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91 G90:G94 H92:H94 C90:C93 C97 G97:H97">
-    <cfRule type="cellIs" dxfId="216" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D91">
-    <cfRule type="cellIs" dxfId="215" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F93 F97">
-    <cfRule type="cellIs" dxfId="214" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="213" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="31" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:H59 H60">
-    <cfRule type="cellIs" dxfId="212" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="cellIs" dxfId="211" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="210" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="209" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="208" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="36" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="207" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="206" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="205" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="204" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C22 E104:J104 C104 E21:G22 I21:XFD22">
-    <cfRule type="cellIs" dxfId="203" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:E136 G136:I136 C149:I150 C143:H148">
-    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:H140 C141:H142 B141:B150">
-    <cfRule type="cellIs" dxfId="201" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:C135 D135:I135 B137:I139">
-    <cfRule type="cellIs" dxfId="200" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133 D130:I132 D134:E134 G134:I134">
-    <cfRule type="cellIs" dxfId="199" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="198" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133:G133 F134">
-    <cfRule type="cellIs" dxfId="197" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="cellIs" dxfId="196" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140:I148">
-    <cfRule type="cellIs" dxfId="195" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101 C101 G101:H101">
-    <cfRule type="cellIs" dxfId="194" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="cellIs" dxfId="193" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H96 K95:XFD96">
-    <cfRule type="cellIs" dxfId="192" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:F95">
-    <cfRule type="cellIs" dxfId="191" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E95">
-    <cfRule type="cellIs" dxfId="190" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94:D95">
-    <cfRule type="cellIs" dxfId="189" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D58">
-    <cfRule type="cellIs" dxfId="188" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="cellIs" dxfId="187" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="186" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="185" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="184" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28042,212 +28559,212 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B130:B131 C130:F132 A139:F145 A72 C72 A1:XFD2 J146:XFD163 A146:A163 I155:I161 B155:B163 B133:C133 C137:F138 I38:XFD53 A36:XFD37 C135:D136 C134 A70:C71 D72:D73 D86:D90 A164:XFD1048576 H108 G108:G111 D108:E108 F108:F110 A122:F129 D38:H42 D43:G43 H54 A62:XFD63 G83:XFD83 G81:G82 I81:XFD82 A85 C85 B84 A38:C53 A67:XFD67 I68:XFD69 D111:D114 A130:A138 F133:F136 E135 G122:XFD145 A73:C74 E70:XFD74 G78:XFD80 A75:XFD75 A78:F83 B104:C107 E101:G101 G112:H115 C108:C115 B108:B116 A104:A121 B118:G118 A77:XFD77 H76 E96:XFD99 E85:XFD90 E91:G95 I91:XFD95 H92:H95 A101:C103 A100 C100 A86:C99 E103:H106 A35:C35 E35:XFD35 I118:XFD121 L111:XFD117 I111:J117 I100:XFD110">
-    <cfRule type="cellIs" dxfId="183" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B138">
-    <cfRule type="cellIs" dxfId="182" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91 D97:D99">
-    <cfRule type="cellIs" dxfId="181" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:I163 C156:H161">
-    <cfRule type="cellIs" dxfId="180" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155:H155">
-    <cfRule type="cellIs" dxfId="179" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:C151 D151:I151 B152:I154">
-    <cfRule type="cellIs" dxfId="178" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149 D146:I148 D150:E150 G150:I150">
-    <cfRule type="cellIs" dxfId="177" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="176" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:G149 F150">
-    <cfRule type="cellIs" dxfId="175" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="174" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="47" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="cellIs" dxfId="173" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133">
-    <cfRule type="cellIs" dxfId="172" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="171" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:G107 B121:G121 C120:G120 B119 D100:H100 B117:H117 H120:H121 H101">
-    <cfRule type="cellIs" dxfId="170" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="cellIs" dxfId="169" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:H102">
-    <cfRule type="cellIs" dxfId="168" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H111 C116 G116:H116">
-    <cfRule type="cellIs" dxfId="167" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="166" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 C119 G119:H119">
-    <cfRule type="cellIs" dxfId="165" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="164" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F114">
-    <cfRule type="cellIs" dxfId="163" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E114">
-    <cfRule type="cellIs" dxfId="162" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84 C84:XFD84">
-    <cfRule type="cellIs" dxfId="161" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="160" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:XFD66">
-    <cfRule type="cellIs" dxfId="159" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:C69 E69:G69 A68:G68">
-    <cfRule type="cellIs" dxfId="158" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="157" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76 C76:G76 I76:XFD76">
-    <cfRule type="cellIs" dxfId="156" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F29 A23:XFD23 A21:B22 H21:XFD22 A20:C20 I20:XFD20 A3:C4 A17:G17 A18:XFD19 H28:XFD29 A15:B16 F12:G16 I9:XFD11 A9:G10 A12:A14 C12:E14 A11:H11 I30:XFD33 A34:D34 F34:XFD34 A24:C33 H12:XFD14 H16:XFD17 I15:XFD15 E24:XFD27 F3:XFD4 A5:XFD8">
-    <cfRule type="cellIs" dxfId="155" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="154" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G22">
-    <cfRule type="cellIs" dxfId="153" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="cellIs" dxfId="152" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:H33 E34">
-    <cfRule type="cellIs" dxfId="151" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D33">
-    <cfRule type="cellIs" dxfId="150" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="10" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="149" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="148" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="147" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="146" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="145" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="144" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="143" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="142" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28303,9 +28820,9 @@
   <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D66" sqref="D66"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -34244,272 +34761,272 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B140:B143 A137:A147 B137:B138 C137:F147 A148:F154 C80 A75:I75 C71:H71 A71 A70:H70 G130:XFD154 A130:F136 J155:XFD172 A173:XFD1048576 A155:A172 A1:XFD1 A43 C43:H43 B38:B39 A68:A69 A47:H48 A64:C64 A63:G63 C66:E66 A62:H62 E67:E69 C67:C69 G79 D78:E78 E91:E92 D93:I93 B110:C110 G115:H119 B111:B120 A91:C94 C97:C98 E100:I100 E97:G98 A36:H37 A22:E23 D27:E27 A77:C79 A80:A84 G84:I84 B84:E84 A96:C96 E96:I96 A89:C89 D88:E89 A95:G95 A97:B100 H97:I99 C103 B101 H101:I102 B104:C105 A103:A105 A106:C107 A110:A128 C126:G127 E83 A18:C18 E18:H18 G22:H23 H24:H26 A28:C29 A24:B27 C24:C26 H28:H30 G27 F20:F29 A32:B35 C31:C35 E31:H35 A58:B58 G58:H58 A60:B61 C58:C61 H60:H61 A65:H65 H66 G81:G83 H77:I82 I83 A85:E87 A90:E90 D94:G94 H94:I95 E106:G107 I103:I107 H112 J22:XFD29 J18:XFD18 J32:XFD37 J43:XFD43 J60:XFD65 A56:H57 A49:C55 F49:F55 I36:I74 J47:XFD58 A88 G88 I85:I88 C114:C119 D114:F118 G85:H87 G89:I92 H104:H107 I110:I128 A72:H74 J68:XFD71 K110:XFD128 K103:XFD107 K101:L102 K77:XFD100 K72:XFD75">
-    <cfRule type="cellIs" dxfId="141" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B147">
-    <cfRule type="cellIs" dxfId="140" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="88" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D92 D96:D98">
-    <cfRule type="cellIs" dxfId="139" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="89" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G114 C111:C113 F112:F113">
-    <cfRule type="cellIs" dxfId="138" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="76" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:G110 B128:G128 B125 E103:H103 B121:H121 B122:G124 G104:G105">
-    <cfRule type="cellIs" dxfId="137" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="136" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:F105">
-    <cfRule type="cellIs" dxfId="135" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114 C120 G120:H120">
-    <cfRule type="cellIs" dxfId="134" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="133" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125 C125 G125:H125 H127:H128">
-    <cfRule type="cellIs" dxfId="132" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="131" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G111">
-    <cfRule type="cellIs" dxfId="130" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="129" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:XFD129">
-    <cfRule type="cellIs" dxfId="128" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:I170 B164:B172">
-    <cfRule type="cellIs" dxfId="127" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171:I172 C165:H170">
-    <cfRule type="cellIs" dxfId="126" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:H164">
-    <cfRule type="cellIs" dxfId="125" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:C160 D160:I160 B161:I163">
-    <cfRule type="cellIs" dxfId="124" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158 D155:I157 D159:E159 G159:I159">
-    <cfRule type="cellIs" dxfId="123" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="122" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:G158 F159">
-    <cfRule type="cellIs" dxfId="121" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:H41 J40:XFD41">
-    <cfRule type="cellIs" dxfId="120" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:H42 J42:XFD42">
-    <cfRule type="cellIs" dxfId="119" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39 C38:H39 J38:XFD39">
-    <cfRule type="cellIs" dxfId="118" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66:XFD67">
-    <cfRule type="cellIs" dxfId="117" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:G64 A66:B67">
-    <cfRule type="cellIs" dxfId="116" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="115" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:C76 E76 G76:I76 K76:XFD76">
-    <cfRule type="cellIs" dxfId="114" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="113" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="112" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="111" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="110" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 A5:E5 A6:B6 A2:XFD2 C9 A21:B21 H21 F6:H8 A19:H19 A16:G16 E9:H9 A8:B9 A12:G12 A11:B11 F11:G11 J11:XFD12 J16:XFD16 A20:E20 G20:H20 D28:E29 G28:G29 A30:B31 J30:XFD31 A3:H4 J3:XFD4 J6:XFD9 J19:XFD21">
-    <cfRule type="cellIs" dxfId="109" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H5 J5:XFD5">
-    <cfRule type="cellIs" dxfId="108" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="107" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="106" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="105" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E21">
-    <cfRule type="cellIs" dxfId="104" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17 C17:H17 J17:XFD17">
-    <cfRule type="cellIs" dxfId="103" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:E15">
-    <cfRule type="cellIs" dxfId="102" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 H16 J13:XFD15">
-    <cfRule type="cellIs" dxfId="101" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:E10">
-    <cfRule type="cellIs" dxfId="100" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10 H12 J10:XFD10">
-    <cfRule type="cellIs" dxfId="99" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="98" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:G101 A101 M101:XFD101 C101">
-    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:C102 E102:G102 M102:XFD102">
-    <cfRule type="cellIs" dxfId="95" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:D83">
-    <cfRule type="cellIs" dxfId="94" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F61">
-    <cfRule type="cellIs" dxfId="91" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F92">
-    <cfRule type="cellIs" dxfId="90" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I35">
-    <cfRule type="cellIs" dxfId="89" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J128">
-    <cfRule type="cellIs" dxfId="88" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34571,9 +35088,9 @@
   <dimension ref="A1:P315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D66" sqref="D66"/>
-      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -34679,7 +35196,9 @@
       <c r="H3" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -34707,7 +35226,9 @@
       <c r="H4" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -34735,7 +35256,9 @@
       <c r="H5" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -34794,7 +35317,9 @@
       <c r="H7" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -34824,7 +35349,9 @@
       <c r="H8" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -34870,7 +35397,9 @@
       <c r="H10" s="9" t="s">
         <v>1056</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -34980,7 +35509,9 @@
       <c r="H14" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -35010,7 +35541,9 @@
       <c r="H15" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -35040,7 +35573,9 @@
       <c r="H16" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
@@ -35072,7 +35607,9 @@
       <c r="H17" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -35102,7 +35639,9 @@
       <c r="H18" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -35265,7 +35804,9 @@
       <c r="H24" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -35295,7 +35836,9 @@
       <c r="H25" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -35399,7 +35942,9 @@
       <c r="H29" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -35429,7 +35974,9 @@
       <c r="H30" s="9" t="s">
         <v>1068</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -35500,7 +36047,9 @@
       <c r="H33" s="9" t="s">
         <v>1071</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -35614,7 +36163,9 @@
       <c r="H37" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -35646,7 +36197,9 @@
       <c r="H38" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -35676,7 +36229,9 @@
       <c r="H39" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -35706,7 +36261,9 @@
       <c r="H40" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -35736,7 +36293,9 @@
       <c r="H41" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -41044,423 +41603,533 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="B148 A145:A154 B105 C61:C64 A57:C60 A69:XFD69 C106 A47:XFD48 D52:XFD52 I106:XFD106 A106 E128:G129 I129:XFD133 A129:A133 A52:A56 B46 E53:G56 I53:XFD56 C49:C56 C147:C149 D148:D149 F79:XFD81 A79:B80 A81:C81 A97 C97:G97 B91 A98:G98 A92:XFD94 A103:XFD104 A88 C88:XFD88 B87:C87 F108:XFD108 A108:C108 A135:A136 I135:XFD136 A1:XFD2 A44:XFD45 E73 C73 I73:XFD73 B145:B146 C125 C165:C169 C130:G130 B128:C129 A137:B144 G168 A155:B1048576 H120:H122 G119 C120:C122 G121:G123 C119:E119 H131:H133 G131 B135 F119:F120 F126:G126 A43:C43 A38:C38 E43 E38 E36:G36 A29:B30 A31 A32:C35 C36 A22:G22 E32:E35 G38 G43 A19:B19 D19:E19 G19:XFD19 A21:E21 G21:XFD21 A99:C101 A96:C96 E96:G96 A120:B123 A124:A125 A126:D126 A127 I123:XFD124 H125:XFD126 I127:XFD127 B124:H124 B131:B133 C133:G134 E147:E149 C150:E164 C135:F146 D165:G167 D169:E169 C170:E1048576 F169:G1048576 G135:G164 F147:F164 H137:XFD1048576 A117:B118 I117:XFD118 I113:XFD113 F114:XFD116 F113:G113 A113:C116 A89:XFD90 G16:G17 C14:C16 A17:E17 A16 A13:B15 A12:E12 A11 C11:E11 B10:C10 G11:XFD12 I13:XFD16 H14:H15 I22:XFD22 H20:H21 H24:H25 I31:XFD31 G29:XFD30 G32:XFD35 I38:XFD38 I43:XFD43 E57:XFD60 A74:XFD78 C70:XFD71 F65:XFD68 A65:C68 B72:XFD72 A70:A73 A82:XFD86 A95:G95 H95:XFD98 A102:G102 E99:G101 I99:XFD100 H101:XFD102 H109:H110 H117">
-    <cfRule type="cellIs" dxfId="87" priority="140" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B148 A145:A154 B105 C61:C64 A57:C60 A69:XFD69 C106 A47:XFD48 D52:XFD52 I106:XFD106 A106 E128:G129 I129:XFD133 A129:A133 A52:A56 B46 E53:G56 I53:XFD56 C49:C56 C147:C149 D148:D149 F79:XFD81 A79:B80 A81:C81 A97 C97:G97 B91 A98:G98 A92:XFD94 A103:XFD104 A88 C88:XFD88 B87:C87 F108:XFD108 A108:C108 A135:A136 I135:XFD136 A1:XFD2 A44:XFD45 E73 C73 I73:XFD73 B145:B146 C125 C165:C169 C130:G130 B128:C129 A137:B144 G168 A155:B1048576 H120:H122 G119 C120:C122 G121:G123 C119:E119 H131:H133 G131 B135 F119:F120 F126:G126 A43:C43 A38:C38 E43 E38 E36:G36 A29:B30 A31 A32:C35 C36 A22:G22 E32:E35 G38 G43 A19:B19 D19:E19 G19:XFD19 A21:E21 G21:XFD21 A99:C101 A96:C96 E96:G96 A120:B123 A124:A125 A126:D126 A127 I123:XFD124 H125:XFD126 I127:XFD127 B124:H124 B131:B133 C133:G134 E147:E149 C150:E164 C135:F146 D165:G167 D169:E169 C170:E1048576 F169:G1048576 G135:G164 F147:F164 H137:XFD1048576 A117:B118 I117:XFD118 I113:XFD113 F114:XFD116 F113:G113 A113:C116 A89:XFD90 G16:G17 C14:C16 A17:E17 A16 A13:B15 A12:E12 A11 C11:E11 B10:C10 G12:XFD12 I13:XFD13 H14:H15 I22:XFD22 H20:H21 H24:H25 I31:XFD31 G35:XFD35 J38:XFD38 I43:XFD43 E57:XFD60 A74:XFD78 C70:XFD71 F65:XFD68 A65:C68 B72:XFD72 A70:A73 A82:XFD86 A95:G95 H95:XFD98 A102:G102 E99:G101 I99:XFD100 H101:XFD102 H109:H110 H117 G11:H11 J11:XFD11 J14:XFD16 G29:H30 J29:XFD30 G32:H34 J32:XFD34">
+    <cfRule type="cellIs" dxfId="134" priority="163" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="86" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="164" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113:E113 G120 C117:C118 F117:G118">
-    <cfRule type="cellIs" dxfId="85" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="158" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:H106 B130 H105">
-    <cfRule type="cellIs" dxfId="84" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="152" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123 H123 H118">
-    <cfRule type="cellIs" dxfId="83" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="155" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="82" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="156" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="81" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="150" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128:D129">
-    <cfRule type="cellIs" dxfId="80" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="144" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:XFD91 A91 C91">
-    <cfRule type="cellIs" dxfId="79" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="78" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="131" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105 I105:XFD105 C105">
-    <cfRule type="cellIs" dxfId="77" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="129" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="76" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="127" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:F105">
-    <cfRule type="cellIs" dxfId="75" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B64 F61:F64 I61:XFD64">
-    <cfRule type="cellIs" dxfId="74" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="126" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D60">
-    <cfRule type="cellIs" dxfId="73" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="72" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="111" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J107:XFD107 A107:B107 E107">
-    <cfRule type="cellIs" dxfId="71" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="70" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128 I128:XFD128">
-    <cfRule type="cellIs" dxfId="69" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134 C132 I134:XFD134">
-    <cfRule type="cellIs" dxfId="68" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168:E168">
-    <cfRule type="cellIs" dxfId="67" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="103" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="cellIs" dxfId="66" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="105" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46 C46:XFD46">
-    <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="99" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D56">
-    <cfRule type="cellIs" dxfId="64" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="95" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I51">
-    <cfRule type="cellIs" dxfId="63" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="94" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="cellIs" dxfId="62" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="93" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87 G87:XFD87 D87:E87">
-    <cfRule type="cellIs" dxfId="61" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="92" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="60" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="91" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119 I119:XFD122 D121:F121 E120">
-    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="89" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="58" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="57" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="86" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="82" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132:G132">
-    <cfRule type="cellIs" dxfId="55" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="84" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="cellIs" dxfId="54" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="83" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:G23 A7:C7 H26:XFD26 A26:C26 A9:C9 I17:XFD17 H40:XFD41 G39:XFD39 C37 E37 H36:XFD36 A36:B37 I20:XFD20 G20 A20:C20 G14:G15 E39:E42 G42:XFD42 G37:XFD37 A24:E25 C29:E30 A3:E6 G6:XFD6 A39:C42 G3:G5 I3:XFD5 A10 G24:G25 I23:XFD25 A27:XFD28 H38 H43">
-    <cfRule type="cellIs" dxfId="53" priority="58" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A23:G23 A7:C7 H26:XFD26 A26:C26 A9:C9 J17:XFD17 G39:H39 C37 E37 H36:XFD36 A36:B37 I20:XFD20 G20 A20:C20 G14:G15 E39:E42 G42:XFD42 G37:H37 A24:E25 C29:E30 A3:E6 G6:XFD6 A39:C42 G3:G5 A10 G24:G25 I23:XFD23 A27:XFD28 H38 H43 J3:XFD5 J24:XFD25 J37:XFD37 H40:H41 J39:XFD41">
+    <cfRule type="cellIs" dxfId="100" priority="81" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43 D38">
-    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="80" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 E9:XFD10 G7:XFD7 H8">
-    <cfRule type="cellIs" dxfId="51" priority="56" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E7 E9:XFD9 G7:H7 H8 J7:XFD7 E10:H10 J10:XFD10">
+    <cfRule type="cellIs" dxfId="98" priority="79" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="78" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8 G8 I8:XFD8">
-    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E8 G8 J8:XFD8">
+    <cfRule type="cellIs" dxfId="96" priority="77" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="76" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="75" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111 E111 A109:C110 I109:XFD110 E109:G110">
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107 F107:I107">
-    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18 G18 I18:XFD18">
-    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E18 G18 J18:XFD18">
+    <cfRule type="cellIs" dxfId="86" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="52" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F125">
+    <cfRule type="cellIs" dxfId="53" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="51" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I5">
+    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="43" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="41" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="37" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
     <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I40">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I41">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41485,7 +42154,7 @@
           <x14:formula1>
             <xm:f>附录!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I137:I138 I99:J100 I1:I2 I105:J110 I101:I104 I179:J1048576 I113:J136 I44:I98</xm:sqref>
+          <xm:sqref>I137:I138 I99:J100 I1:I5 I105:J110 I101:I104 I179:J1048576 I113:J136 I44:I98 I7:I8 I10:I11 I14:I18 I24:I25 I29:I30 I32:I34 I37:I41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -41503,7 +42172,7 @@
           <x14:formula1>
             <xm:f>[3]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F22:F23 F36 F9:F10 F27:F28 B32:C43 C14:C30 B12:B15 I3:I43 B17:B30 B3:B10 C3:C12</xm:sqref>
+          <xm:sqref>F22:F23 F36 F9:F10 F27:F28 B32:C43 C14:C30 B12:B15 C3:C12 B17:B30 B3:B10 I6 I9 I12:I13 I19:I23 I26:I28 I31 I35:I36 I42:I43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -43100,17 +43769,17 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A62:F1048576 A48:F53 A29 C29 A1:F27 A28:C28 A30:C42 E28:F38 G1:XFD1048576 E39:E42 A43:E47 F39:F47">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B61">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D42">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43426,7 +44095,7 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 G2:G5 I1:I25 E2:E26">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑6/里程碑6-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑6/里程碑6-周版本.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\项目管理\进度计划\Demo-里程碑6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="675" windowWidth="29115" windowHeight="18945" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="201501028" sheetId="1" r:id="rId1"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1142">
   <si>
     <t>类别</t>
   </si>
@@ -6034,12 +6029,24 @@
     <t>三方延期</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -6824,7 +6831,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="125">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="2"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="3"/>
     <cellStyle name="常规 10 2 2 2 2 2" xfId="5"/>
@@ -6896,160 +6902,62 @@
     <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="344">
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="335">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -10715,7 +10623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -10728,7 +10636,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -10741,7 +10649,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11096,17 +11004,17 @@
       <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="6" customWidth="1"/>
-    <col min="8" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="6" customWidth="1"/>
+    <col min="8" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -14014,7 +13922,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:16" ht="33" hidden="1">
+    <row r="108" spans="1:16" ht="32" hidden="1">
       <c r="A108" s="7"/>
       <c r="B108" s="9" t="s">
         <v>213</v>
@@ -14032,7 +13940,7 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
     </row>
-    <row r="109" spans="1:16" ht="33" hidden="1">
+    <row r="109" spans="1:16" ht="32" hidden="1">
       <c r="B109" s="9" t="s">
         <v>215</v>
       </c>
@@ -14049,7 +13957,7 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
     </row>
-    <row r="110" spans="1:16" ht="33" hidden="1">
+    <row r="110" spans="1:16" ht="32" hidden="1">
       <c r="A110" s="7"/>
       <c r="B110" s="9" t="s">
         <v>216</v>
@@ -14319,7 +14227,7 @@
       <c r="J129" s="10"/>
       <c r="K129" s="23"/>
     </row>
-    <row r="130" spans="1:16" ht="33">
+    <row r="130" spans="1:16" ht="32">
       <c r="B130" s="21" t="s">
         <v>235</v>
       </c>
@@ -16168,372 +16076,372 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B116:B119 A113:A123 B113:B114 C113:F123 A124:F130 A14:B14 F7:F8 A16 I8:XFD8 E11:E12 A1:XFD2 B3 I18:XFD18 A18:A19 D19:H19 E30:G31 E32 G32 C35:C39 A36:A39 A33:A34 E33:F33 E35:F39 E34 A22 C33 A41:A42 A66:A68 A55:A56 C55:C56 I57:XFD59 E92:E93 E102 A104:F112 E103:F103 D90 E100 G100 I100:XFD100 D71 C50 F50:XFD51 A152:XFD1048576 C144:XFD151 J131:XFD143 A131:A151 B137:E137 G137:I137 G29 E29 B22:C23 A28:E28 E25:E27 A27 B25:C27 A43:B43 C42:C43 F54:XFD54 E57:G57 A54:C54 E55:XFD56 A76:C103 A75 C75 A69:C74 A6:C8 E13:G13 I13:XFD13 H16 A20:XFD20 A21:G21 D22:H22 A24:XFD24 H41:XFD43 I44:XFD47 E48:XFD48 E49:G49 I49:XFD49 E52:XFD53 E60:XFD61 E62:G64 I62:XFD64 E70:G70 I70:XFD70 E77:G80 H78:H79 E85:G85 I85:XFD85 E86:XFD86 E91:XFD91 E87:G90 I87:XFD90 H88:H89 G96:XFD99 G92:G95 I92:XFD95 H94 A57:C57 F59:G59 C52:C53 A50:B51 B52 A52:A53 E42:G47 A44:C49 D78:D79 D81:D87 E65:M65 O65:XFD65 C66:C68 E66:XFD69 A59:C65 A58:B58 F101:M101 O101:XFD101 G102:XFD130 J6:XFD7 J14:XFD14 J16:XFD16 J19:XFD19 J21:XFD22 G25:H26 J25:XFD26 G27:XFD28 I29:XFD29 H34 J34:XFD34 H36:H38 J36:XFD38 H35:XFD35 H39:XFD39 E71:XFD76 I77:XFD80 E81:XFD84 H30:XFD33">
-    <cfRule type="cellIs" dxfId="343" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="cellIs" dxfId="342" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A13 G11:H12 E3:E5 C13 A3:A5 G9:G10 G3:XFD3 G4:H5 J4:XFD5 I4:I7 J9:XFD12">
-    <cfRule type="cellIs" dxfId="341" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 G23:H23 J23:XFD23">
-    <cfRule type="cellIs" dxfId="340" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 D64 D55:D56 D52">
-    <cfRule type="cellIs" dxfId="339" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="7" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A25:A26 A29:A32">
-    <cfRule type="cellIs" dxfId="338" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="337" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="cellIs" dxfId="336" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="335" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C15:D15 C16 E16 E18:G18 C18 G14:G16">
-    <cfRule type="cellIs" dxfId="334" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C10:D10 F9:F10">
-    <cfRule type="cellIs" dxfId="333" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="332" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="331" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="330" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17 G17:H17 J17:XFD17">
-    <cfRule type="cellIs" dxfId="329" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="328" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="327" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="326" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="325" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="324" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29 C31">
-    <cfRule type="cellIs" dxfId="323" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="322" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="321" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="320" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="319" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="318" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="317" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="316" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F12">
-    <cfRule type="cellIs" dxfId="315" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="314" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="313" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="312" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="311" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="310" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="309" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="308" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="307" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="306" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B31">
-    <cfRule type="cellIs" dxfId="305" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B42">
-    <cfRule type="cellIs" dxfId="304" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B19">
-    <cfRule type="cellIs" dxfId="303" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="302" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="301" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="300" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="299" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="298" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" dxfId="297" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="49" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="296" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="50" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49 D70">
-    <cfRule type="cellIs" dxfId="295" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="51" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="294" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="52" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:E54">
-    <cfRule type="cellIs" dxfId="293" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57 H59">
-    <cfRule type="cellIs" dxfId="292" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="291" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="290" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="289" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F100">
-    <cfRule type="cellIs" dxfId="288" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="287" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="286" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="cellIs" dxfId="285" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="284" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="283" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:E98">
-    <cfRule type="cellIs" dxfId="282" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="64" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D98">
-    <cfRule type="cellIs" dxfId="281" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="65" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141:I141 C142:I143 B142:B151">
-    <cfRule type="cellIs" dxfId="280" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:C136 D136:I136 B138:I140">
-    <cfRule type="cellIs" dxfId="279" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134 D131:I133 D135:E135 G135:I135">
-    <cfRule type="cellIs" dxfId="278" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="277" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:G134 F135">
-    <cfRule type="cellIs" dxfId="276" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="cellIs" dxfId="275" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58 C58">
-    <cfRule type="cellIs" dxfId="274" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="273" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="73" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="272" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="271" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="270" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16590,16 +16498,16 @@
       <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="7" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -17387,7 +17295,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" ht="33">
+    <row r="29" spans="1:16">
       <c r="A29" s="7"/>
       <c r="C29" s="12" t="s">
         <v>17</v>
@@ -19452,7 +19360,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:16" ht="33">
+    <row r="106" spans="1:16" ht="32">
       <c r="A106" s="7"/>
       <c r="B106" s="9" t="s">
         <v>213</v>
@@ -19470,7 +19378,7 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" ht="33">
+    <row r="107" spans="1:16" ht="32">
       <c r="B107" s="9" t="s">
         <v>215</v>
       </c>
@@ -19487,7 +19395,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
     </row>
-    <row r="108" spans="1:16" ht="33">
+    <row r="108" spans="1:16" ht="32">
       <c r="A108" s="7"/>
       <c r="B108" s="9" t="s">
         <v>216</v>
@@ -22334,202 +22242,202 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B114 B111:B112 A124:F129 A60 C60 A1:XFD2 A23:B23 A33:XFD34 I23:XFD23 A104:B104 A105:F110 E89:G89 F24:XFD24 F6 A6:C6 A14:F19 F54:G55 A53:XFD53 A51 D115:D116 K104:XFD104 G105:XFD129 C111:F113 C114:C119 E114:F123 A123:D123 A111:A122 B120:C121 A74:C89 D75:D76 C71:C73 D79:D81 D83:D86 A54:D55 E11:F13 E10 E20:F20 A20:C20 F25 H25:XFD25 E23:E25 H27:XFD28 E27:F28 E32:XFD32 A32:C32 A61:C65 D62:D64 A68:B73 D68:D73 A52:B52 C51 I47:XFD52 E51:H51 A151:XFD1048576 A130:A150 J130:XFD150 A35:C40 F40:XFD40 E46:XFD46 A48:H50 A47 C47:H47 A46:C46 A41:XFD45 A103:G103 A102 C102:G102 A101:B101 A90:B97 C94:C95 F8 A3:E4 A7:E7 A8:C13 D9:F9 E35:XFD39 E60:G60 G3:XFD4 A5:XFD5 H6:XFD6 G7 I7:XFD7 G8:XFD12 G13 I13:XFD13 G14:XFD18 G19:G20 I19:XFD20 H20:H21 E26:XFD26 E61:XFD62 A66:H66 E68:XFD77 E78:G78 I78:XFD78 E79:XFD86 H88 A98:H98 I97:XFD103 A99:G100 H102:H103 A57:C59 E57:G58 A56:G56 I54:XFD60 E29:XFD30 E63:H65 I63:XFD66 I87:XFD94 I95:J96 A24:C30">
-    <cfRule type="cellIs" dxfId="269" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:D61 D89">
-    <cfRule type="cellIs" dxfId="268" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="267" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="266" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="265" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="264" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:H87 E88:G88">
-    <cfRule type="cellIs" dxfId="263" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91 G90:G94 H92:H94 C90:C93 C97 G97:H97">
-    <cfRule type="cellIs" dxfId="262" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D91">
-    <cfRule type="cellIs" dxfId="261" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F93 F97">
-    <cfRule type="cellIs" dxfId="260" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="259" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="31" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:H59 H60">
-    <cfRule type="cellIs" dxfId="258" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="cellIs" dxfId="257" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="256" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="255" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="254" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="36" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="253" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="252" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="251" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="250" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C22 E104:J104 C104 E21:G22 I21:XFD22">
-    <cfRule type="cellIs" dxfId="249" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:E136 G136:I136 C149:I150 C143:H148">
-    <cfRule type="cellIs" dxfId="248" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:H140 C141:H142 B141:B150">
-    <cfRule type="cellIs" dxfId="247" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130:C135 D135:I135 B137:I139">
-    <cfRule type="cellIs" dxfId="246" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133 D130:I132 D134:E134 G134:I134">
-    <cfRule type="cellIs" dxfId="245" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="244" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133:G133 F134">
-    <cfRule type="cellIs" dxfId="243" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="cellIs" dxfId="242" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I140:I148">
-    <cfRule type="cellIs" dxfId="241" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101 C101 G101:H101">
-    <cfRule type="cellIs" dxfId="240" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="cellIs" dxfId="239" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H96 K95:XFD96">
-    <cfRule type="cellIs" dxfId="238" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:F95">
-    <cfRule type="cellIs" dxfId="237" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:E95">
-    <cfRule type="cellIs" dxfId="236" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94:D95">
-    <cfRule type="cellIs" dxfId="235" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D58">
-    <cfRule type="cellIs" dxfId="234" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="cellIs" dxfId="233" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="232" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="231" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="230" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22586,16 +22494,16 @@
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="7" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -25949,7 +25857,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:16" ht="33">
+    <row r="125" spans="1:16" ht="32">
       <c r="A125" s="7"/>
       <c r="B125" s="9" t="s">
         <v>213</v>
@@ -25967,7 +25875,7 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
     </row>
-    <row r="126" spans="1:16" ht="33">
+    <row r="126" spans="1:16" ht="32">
       <c r="B126" s="9" t="s">
         <v>215</v>
       </c>
@@ -25984,7 +25892,7 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
     </row>
-    <row r="127" spans="1:16" ht="33">
+    <row r="127" spans="1:16" ht="32">
       <c r="A127" s="7"/>
       <c r="B127" s="9" t="s">
         <v>216</v>
@@ -28568,212 +28476,212 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B130:B131 C130:F132 A139:F145 A72 C72 A1:XFD2 J146:XFD163 A146:A163 I155:I161 B155:B163 B133:C133 C137:F138 I38:XFD53 A36:XFD37 C135:D136 C134 A70:C71 D72:D73 D86:D90 A164:XFD1048576 H108 G108:G111 D108:E108 F108:F110 A122:F129 D38:H42 D43:G43 H54 A62:XFD63 G83:XFD83 G81:G82 I81:XFD82 A85 C85 B84 A38:C53 A67:XFD67 I68:XFD69 D111:D114 A130:A138 F133:F136 E135 G122:XFD145 A73:C74 E70:XFD74 G78:XFD80 A75:XFD75 A78:F83 B104:C107 E101:G101 G112:H115 C108:C115 B108:B116 A104:A121 B118:G118 A77:XFD77 H76 E96:XFD99 E85:XFD90 E91:G95 I91:XFD95 H92:H95 A101:C103 A100 C100 A86:C99 E103:H106 A35:C35 E35:XFD35 I118:XFD121 L111:XFD117 I111:J117 I100:XFD110">
-    <cfRule type="cellIs" dxfId="229" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B138">
-    <cfRule type="cellIs" dxfId="228" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91 D97:D99">
-    <cfRule type="cellIs" dxfId="227" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162:I163 C156:H161">
-    <cfRule type="cellIs" dxfId="226" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155:H155">
-    <cfRule type="cellIs" dxfId="225" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:C151 D151:I151 B152:I154">
-    <cfRule type="cellIs" dxfId="224" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149 D146:I148 D150:E150 G150:I150">
-    <cfRule type="cellIs" dxfId="223" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="222" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:G149 F150">
-    <cfRule type="cellIs" dxfId="221" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="220" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="47" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="cellIs" dxfId="219" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133">
-    <cfRule type="cellIs" dxfId="218" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="217" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:G107 B121:G121 C120:G120 B119 D100:H100 B117:H117 H120:H121 H101">
-    <cfRule type="cellIs" dxfId="216" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="cellIs" dxfId="215" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:H102">
-    <cfRule type="cellIs" dxfId="214" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H111 C116 G116:H116">
-    <cfRule type="cellIs" dxfId="213" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="cellIs" dxfId="212" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 C119 G119:H119">
-    <cfRule type="cellIs" dxfId="211" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="210" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F114">
-    <cfRule type="cellIs" dxfId="209" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E114">
-    <cfRule type="cellIs" dxfId="208" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84 C84:XFD84">
-    <cfRule type="cellIs" dxfId="207" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="206" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:XFD66">
-    <cfRule type="cellIs" dxfId="205" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:C69 E69:G69 A68:G68">
-    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="203" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76 C76:G76 I76:XFD76">
-    <cfRule type="cellIs" dxfId="202" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F29 A23:XFD23 A21:B22 H21:XFD22 A20:C20 I20:XFD20 A3:C4 A17:G17 A18:XFD19 H28:XFD29 A15:B16 F12:G16 I9:XFD11 A9:G10 A12:A14 C12:E14 A11:H11 I30:XFD33 A34:D34 F34:XFD34 A24:C33 H12:XFD14 H16:XFD17 I15:XFD15 E24:XFD27 F3:XFD4 A5:XFD8">
-    <cfRule type="cellIs" dxfId="201" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="200" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G22">
-    <cfRule type="cellIs" dxfId="199" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="cellIs" dxfId="198" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:H33 E34">
-    <cfRule type="cellIs" dxfId="197" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D33">
-    <cfRule type="cellIs" dxfId="196" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="10" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="195" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="194" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="193" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="192" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="191" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="190" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="189" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="188" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28837,18 +28745,18 @@
       <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="9" width="10.125" style="6"/>
-    <col min="10" max="10" width="20.375" style="6" customWidth="1"/>
-    <col min="11" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="7" max="9" width="10.1640625" style="6"/>
+    <col min="10" max="10" width="20.33203125" style="6" customWidth="1"/>
+    <col min="11" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -30932,7 +30840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="33">
+    <row r="92" spans="1:15" ht="32">
       <c r="A92" s="15"/>
       <c r="C92" s="12" t="s">
         <v>17</v>
@@ -31831,7 +31739,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:16" ht="33">
+    <row r="132" spans="1:16" ht="32">
       <c r="A132" s="7"/>
       <c r="B132" s="9" t="s">
         <v>213</v>
@@ -31849,7 +31757,7 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
     </row>
-    <row r="133" spans="1:16" ht="33">
+    <row r="133" spans="1:16" ht="32">
       <c r="B133" s="9" t="s">
         <v>215</v>
       </c>
@@ -31866,7 +31774,7 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
     </row>
-    <row r="134" spans="1:16" ht="33">
+    <row r="134" spans="1:16" ht="32">
       <c r="A134" s="7"/>
       <c r="B134" s="9" t="s">
         <v>216</v>
@@ -34773,272 +34681,272 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B140:B143 A137:A147 B137:B138 C137:F147 A148:F154 C80 A75:I75 C71:H71 A71 A70:H70 G130:XFD154 A130:F136 J155:XFD172 A173:XFD1048576 A155:A172 A1:XFD1 A43 C43:H43 B38:B39 A68:A69 A47:H48 A64:C64 A63:G63 C66:E66 A62:H62 E67:E69 C67:C69 G79 D78:E78 E91:E92 D93:I93 B110:C110 G115:H119 B111:B120 A91:C94 C97:C98 E100:I100 E97:G98 A36:H37 A22:E23 D27:E27 A77:C79 A80:A84 G84:I84 B84:E84 A96:C96 E96:I96 A89:C89 D88:E89 A95:G95 A97:B100 H97:I99 C103 B101 H101:I102 B104:C105 A103:A105 A106:C107 A110:A128 C126:G127 E83 A18:C18 E18:H18 G22:H23 H24:H26 A28:C29 A24:B27 C24:C26 H28:H30 G27 F20:F29 A32:B35 C31:C35 E31:H35 A58:B58 G58:H58 A60:B61 C58:C61 H60:H61 A65:H65 H66 G81:G83 H77:I82 I83 A85:E87 A90:E90 D94:G94 H94:I95 E106:G107 I103:I107 H112 J22:XFD29 J18:XFD18 J32:XFD37 J43:XFD43 J60:XFD65 A56:H57 A49:C55 F49:F55 I36:I74 J47:XFD58 A88 G88 I85:I88 C114:C119 D114:F118 G85:H87 G89:I92 H104:H107 I110:I128 A72:H74 J68:XFD71 K110:XFD128 K103:XFD107 K101:L102 K77:XFD100 K72:XFD75">
-    <cfRule type="cellIs" dxfId="187" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B147">
-    <cfRule type="cellIs" dxfId="186" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="88" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D92 D96:D98">
-    <cfRule type="cellIs" dxfId="185" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="89" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112:G114 C111:C113 F112:F113">
-    <cfRule type="cellIs" dxfId="184" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="76" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110:G110 B128:G128 B125 E103:H103 B121:H121 B122:G124 G104:G105">
-    <cfRule type="cellIs" dxfId="183" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="182" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:F105">
-    <cfRule type="cellIs" dxfId="181" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114 C120 G120:H120">
-    <cfRule type="cellIs" dxfId="180" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="179" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125 C125 G125:H125 H127:H128">
-    <cfRule type="cellIs" dxfId="178" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="177" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:G111">
-    <cfRule type="cellIs" dxfId="176" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="175" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:XFD129">
-    <cfRule type="cellIs" dxfId="174" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:I170 B164:B172">
-    <cfRule type="cellIs" dxfId="173" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171:I172 C165:H170">
-    <cfRule type="cellIs" dxfId="172" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:H164">
-    <cfRule type="cellIs" dxfId="171" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:C160 D160:I160 B161:I163">
-    <cfRule type="cellIs" dxfId="170" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158 D155:I157 D159:E159 G159:I159">
-    <cfRule type="cellIs" dxfId="169" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="168" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:G158 F159">
-    <cfRule type="cellIs" dxfId="167" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:H41 J40:XFD41">
-    <cfRule type="cellIs" dxfId="166" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:H42 J42:XFD42">
-    <cfRule type="cellIs" dxfId="165" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39 C38:H39 J38:XFD39">
-    <cfRule type="cellIs" dxfId="164" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66:XFD67">
-    <cfRule type="cellIs" dxfId="163" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:G64 A66:B67">
-    <cfRule type="cellIs" dxfId="162" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="161" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:C76 E76 G76:I76 K76:XFD76">
-    <cfRule type="cellIs" dxfId="160" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="159" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="158" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="157" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="156" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 A5:E5 A6:B6 A2:XFD2 C9 A21:B21 H21 F6:H8 A19:H19 A16:G16 E9:H9 A8:B9 A12:G12 A11:B11 F11:G11 J11:XFD12 J16:XFD16 A20:E20 G20:H20 D28:E29 G28:G29 A30:B31 J30:XFD31 A3:H4 J3:XFD4 J6:XFD9 J19:XFD21">
-    <cfRule type="cellIs" dxfId="155" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H5 J5:XFD5">
-    <cfRule type="cellIs" dxfId="154" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="153" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="152" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="151" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E21">
-    <cfRule type="cellIs" dxfId="150" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17 C17:H17 J17:XFD17">
-    <cfRule type="cellIs" dxfId="149" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:E15">
-    <cfRule type="cellIs" dxfId="148" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 H16 J13:XFD15">
-    <cfRule type="cellIs" dxfId="147" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:E10">
-    <cfRule type="cellIs" dxfId="146" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10 H12 J10:XFD10">
-    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="144" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="143" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:G101 A101 M101:XFD101 C101">
-    <cfRule type="cellIs" dxfId="142" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:C102 E102:G102 M102:XFD102">
-    <cfRule type="cellIs" dxfId="141" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:D83">
-    <cfRule type="cellIs" dxfId="140" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="139" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="138" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F61">
-    <cfRule type="cellIs" dxfId="137" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F92">
-    <cfRule type="cellIs" dxfId="136" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I35">
-    <cfRule type="cellIs" dxfId="135" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:J128">
-    <cfRule type="cellIs" dxfId="134" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35103,23 +35011,23 @@
   <dimension ref="A1:P316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D66" sqref="D66"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="12" width="10.125" style="6"/>
-    <col min="13" max="13" width="10.125" style="6" customWidth="1"/>
-    <col min="14" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="7" max="12" width="10.1640625" style="6"/>
+    <col min="13" max="13" width="10.1640625" style="6" customWidth="1"/>
+    <col min="14" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -36227,7 +36135,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" ht="33">
+    <row r="38" spans="1:16" ht="32">
       <c r="A38" s="7"/>
       <c r="B38" s="11"/>
       <c r="C38" s="6" t="s">
@@ -36325,7 +36233,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="33">
+    <row r="41" spans="1:16" ht="32">
       <c r="A41" s="7"/>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
@@ -36476,7 +36384,9 @@
       <c r="H46" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="I46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K46" s="6" t="s">
         <v>457</v>
       </c>
@@ -36499,7 +36409,9 @@
       <c r="H47" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -36528,7 +36440,9 @@
       <c r="H48" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="I48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
         <v>361</v>
@@ -36558,7 +36472,9 @@
       <c r="H49" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L49" s="6" t="s">
         <v>361</v>
       </c>
@@ -36582,7 +36498,9 @@
       <c r="H50" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="I50" s="10"/>
+      <c r="I50" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="51" spans="2:16">
       <c r="C51" s="15" t="s">
@@ -36603,7 +36521,9 @@
       <c r="H51" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" s="10" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="5"/>
@@ -36623,7 +36543,9 @@
       <c r="H52" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" s="10" t="s">
+        <v>1139</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -36652,7 +36574,9 @@
       <c r="H53" s="60" t="s">
         <v>958</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -36681,7 +36605,9 @@
       <c r="H54" s="60" t="s">
         <v>959</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -36710,7 +36636,9 @@
       <c r="H55" s="60" t="s">
         <v>960</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -36739,7 +36667,9 @@
       <c r="H56" s="60" t="s">
         <v>961</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" s="10" t="s">
+        <v>1140</v>
+      </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -36768,7 +36698,9 @@
       <c r="H57" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -36797,7 +36729,9 @@
       <c r="H58" s="68" t="s">
         <v>1131</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -36826,7 +36760,9 @@
       <c r="H59" s="68" t="s">
         <v>1132</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="I59" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -36853,7 +36789,9 @@
       <c r="H60" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -36880,7 +36818,9 @@
       <c r="H61" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="I61" s="10" t="s">
+        <v>1139</v>
+      </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9" t="s">
         <v>361</v>
@@ -36911,7 +36851,9 @@
       <c r="H62" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="K62" s="6" t="s">
         <v>361</v>
       </c>
@@ -36936,7 +36878,9 @@
       <c r="H63" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="I63" s="10"/>
+      <c r="I63" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L63" s="6" t="s">
         <v>361</v>
       </c>
@@ -36961,7 +36905,9 @@
       <c r="H64" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="I64" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
       <c r="B65" s="14"/>
@@ -36981,7 +36927,9 @@
         <v>1</v>
       </c>
       <c r="H65" s="49"/>
-      <c r="I65" s="10"/>
+      <c r="I65" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="66" spans="1:16">
       <c r="B66" s="14"/>
@@ -37001,7 +36949,9 @@
       <c r="H66" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J66" s="9"/>
       <c r="K66" s="6" t="s">
         <v>1126</v>
@@ -37025,7 +36975,9 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="10"/>
+      <c r="I67" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -37049,7 +37001,9 @@
       <c r="H68" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="I68" s="10"/>
+      <c r="I68" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -37068,7 +37022,9 @@
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="10"/>
+      <c r="I69" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -37112,7 +37068,9 @@
       <c r="H71" s="10" t="s">
         <v>1088</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -37159,7 +37117,9 @@
       <c r="H73" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="I73" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -37186,7 +37146,9 @@
       <c r="H74" s="67" t="s">
         <v>1092</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="16"/>
@@ -37208,7 +37170,9 @@
       <c r="H75" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="I75" s="10"/>
+      <c r="I75" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
         <v>361</v>
@@ -37239,7 +37203,9 @@
       <c r="H76" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="I76" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -37268,7 +37234,9 @@
       <c r="H77" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -37293,7 +37261,9 @@
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
+      <c r="I78" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -37840,7 +37810,7 @@
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
     </row>
-    <row r="98" spans="1:16" ht="15.95" customHeight="1">
+    <row r="98" spans="1:16" ht="16" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="5"/>
       <c r="C98" s="12" t="s">
@@ -37872,7 +37842,7 @@
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
     </row>
-    <row r="99" spans="1:16" ht="49.5">
+    <row r="99" spans="1:16" ht="32">
       <c r="A99" s="16"/>
       <c r="C99" s="12" t="s">
         <v>65</v>
@@ -37954,7 +37924,9 @@
       <c r="H102" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="I102" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9" t="s">
@@ -37985,7 +37957,9 @@
       <c r="H103" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="I103" s="10"/>
+      <c r="I103" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -38050,6 +38024,9 @@
       <c r="H106" s="9" t="s">
         <v>1114</v>
       </c>
+      <c r="I106" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" s="5"/>
@@ -38071,6 +38048,9 @@
       <c r="H107" s="9" t="s">
         <v>1113</v>
       </c>
+      <c r="I107" s="6" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="108" spans="1:16">
       <c r="B108" s="20"/>
@@ -38092,6 +38072,9 @@
       <c r="H108" s="9" t="s">
         <v>863</v>
       </c>
+      <c r="I108" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L108" s="6" t="s">
         <v>379</v>
       </c>
@@ -38119,6 +38102,9 @@
       <c r="H109" s="9" t="s">
         <v>1115</v>
       </c>
+      <c r="I109" s="6" t="s">
+        <v>1139</v>
+      </c>
       <c r="M109" s="6" t="s">
         <v>1133</v>
       </c>
@@ -38143,6 +38129,9 @@
       <c r="H110" s="9" t="s">
         <v>1116</v>
       </c>
+      <c r="I110" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" s="20"/>
@@ -38164,6 +38153,9 @@
       <c r="H111" s="9" t="s">
         <v>1117</v>
       </c>
+      <c r="I111" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="112" spans="1:16">
       <c r="C112" s="6" t="s">
@@ -38202,7 +38194,9 @@
       <c r="H114" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="I114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -38231,7 +38225,9 @@
       <c r="H115" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="I115" s="5"/>
+      <c r="I115" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -38260,7 +38256,9 @@
       <c r="H116" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="I116" s="5"/>
+      <c r="I116" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -38289,7 +38287,9 @@
       <c r="H117" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="I117" s="5"/>
+      <c r="I117" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -38354,7 +38354,9 @@
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="5"/>
+      <c r="I120" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5" t="s">
@@ -38378,7 +38380,9 @@
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="5"/>
+      <c r="I121" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -38420,7 +38424,9 @@
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -38465,7 +38471,9 @@
       <c r="H125" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="I125" s="5"/>
+      <c r="I125" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -38495,7 +38503,9 @@
       <c r="H126" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -38564,7 +38574,9 @@
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="9"/>
-      <c r="I129" s="5"/>
+      <c r="I129" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
@@ -38587,7 +38599,9 @@
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="9"/>
-      <c r="I130" s="5"/>
+      <c r="I130" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -38635,7 +38649,9 @@
       <c r="H132" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="I132" s="5"/>
+      <c r="I132" s="5" t="s">
+        <v>1139</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5" t="s">
@@ -38667,7 +38683,9 @@
       <c r="H133" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="I133" s="5"/>
+      <c r="I133" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
@@ -38695,7 +38713,9 @@
       <c r="H134" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="I134" s="5"/>
+      <c r="I134" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
@@ -38796,7 +38816,7 @@
       <c r="I140" s="10"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:16" ht="33">
+    <row r="141" spans="1:16" ht="32">
       <c r="A141" s="7"/>
       <c r="B141" s="9" t="s">
         <v>213</v>
@@ -38812,7 +38832,7 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
     </row>
-    <row r="142" spans="1:16" ht="33">
+    <row r="142" spans="1:16" ht="32">
       <c r="B142" s="9" t="s">
         <v>215</v>
       </c>
@@ -38827,7 +38847,7 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
     </row>
-    <row r="143" spans="1:16" ht="33">
+    <row r="143" spans="1:16" ht="32">
       <c r="A143" s="7"/>
       <c r="B143" s="9" t="s">
         <v>216</v>
@@ -41767,603 +41787,603 @@
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="B149 A146:A155 B106 C62:C65 A70:XFD70 C107 A47:XFD48 D52:XFD52 I107:XFD107 A107 E129:G130 I130:XFD134 A130:A134 A52:A56 B46 E53:G56 I53:XFD56 C49:C56 C148:C150 D149:D150 F80:XFD82 A80:B81 A82:C82 A98 C98:G98 B92 A99:G99 A104:XFD105 A89 B88:C88 F109:XFD109 A109:C109 A136:A137 I136:XFD137 A1:XFD2 A45:XFD45 E74 C74 I74:XFD74 B146:B147 C126 C166:C170 C131:G131 B129:C130 A138:B145 G169 A156:B1048576 H121:H123 G120 C121:C123 G122:G124 C120:E120 H132:H134 G132 B136 F120:F121 F127:G127 A43:C43 A38:C38 E43 E38 E36:G36 A29:B30 A31 A32:C35 C36 A22:G22 E32:E35 G38 G43 A19:B19 D19:E19 G19:H19 A21:E21 G21:H21 A100:C102 A97:C97 E97:G97 A121:B124 A125:A126 A127:D127 A128 I124:XFD125 H126:XFD127 I128:XFD128 B125:H125 B132:B134 C134:G135 E148:E150 C151:E165 C136:F147 D166:G168 D170:E170 C171:E1048576 F170:G1048576 G136:G165 F148:F165 H138:XFD1048576 A118:B119 I118:XFD119 I114:XFD114 F115:XFD117 F114:G114 A114:C117 G16:G17 C14:C16 A17:E17 A16 A13:B15 A12:E12 A11 C11:E11 B10:C10 G11:H12 H14:H15 H20:H21 H24:H25 G29:H30 G32:H35 J38:XFD38 A75:XFD79 C71:XFD72 F66:XFD69 A66:C69 B73:XFD73 A71:A74 A83:XFD87 A96:G96 A103:G103 E100:G102 I100:XFD101 H102:XFD103 H110:H111 H118 E61:XFD61 A61:C61 A60:XFD60 A57:C59 E57:XFD57 E58:G59 I58:XFD59 J15:XFD16 M14:XFD14 J14:K14 J29:XFD35 J11:XFD13 J21:XFD22 J19:XFD19 A44:H44 J43:XFD44 C89:XFD89 A90:XFD91 A93:XFD95 H96:XFD99">
-    <cfRule type="cellIs" dxfId="133" priority="179" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B149 A146:A155 B106 C62:C65 A70:XFD70 C107 A47:XFD48 D52:XFD52 I107:XFD107 A107 E129:G130 I130:XFD134 A130:A134 A52:A56 B46 E53:G56 I53:XFD56 C49:C56 C148:C150 D149:D150 F80:XFD82 A80:B81 A82:C82 A98 C98:G98 B92 A99:G99 A104:XFD105 A89 B88:C88 F109:XFD109 A109:C109 A136:A137 I136:XFD137 A1:XFD2 A45:XFD45 E74 C74 I74:XFD74 B146:B147 C126 C166:C170 C131:G131 B129:C130 A138:B145 G169 A156:B1048576 H121:H123 G120 C121:C123 G122:G124 C120:E120 H132:H134 G132 B136 F120:F121 F127:G127 A43:C43 A38:C38 E43 E38 E36:G36 A29:B30 A31 A32:C35 C36 A22:G22 E32:E35 G38 G43 A19:B19 D19:E19 G19:H19 A21:E21 G21:H21 A100:C102 A97:C97 E97:G97 A121:B124 A125:A126 A127:D127 A128 I124:XFD125 H126:XFD127 I128:XFD128 B125:H125 B132:B134 C134:G135 E148:E150 C151:E165 C136:F147 D166:G168 D170:E170 C171:E1048576 F170:G1048576 G136:G165 F148:F165 H138:XFD1048576 A118:B119 I118:XFD119 I114:XFD114 F115:XFD117 F114:G114 A114:C117 G16:G17 C14:C16 A17:E17 A16 A13:B15 A12:E12 A11 C11:E11 B10:C10 G11:H12 H14:H15 H20:H21 H24:H25 G29:H30 G32:H35 J38:XFD38 C71:XFD72 F66:XFD69 A66:C69 B73:XFD73 A71:A74 A83:XFD87 A96:G96 A103:G103 E100:G102 I100:XFD101 H102:XFD103 H110:H111 H118 E61:XFD61 A61:C61 A60:XFD60 A57:C59 E57:XFD57 E58:G59 I58:XFD59 J15:XFD16 M14:XFD14 J14:K14 J29:XFD35 J11:XFD13 J21:XFD22 J19:XFD19 A44:H44 J43:XFD44 C89:XFD89 A90:XFD91 A93:XFD95 H96:XFD99 A75:XFD79">
+    <cfRule type="cellIs" dxfId="124" priority="179" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="cellIs" dxfId="132" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="180" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114:E114 G121 C118:C119 F118:G119">
-    <cfRule type="cellIs" dxfId="131" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="174" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:H107 B131 H106">
-    <cfRule type="cellIs" dxfId="130" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="168" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124 H124 H119">
-    <cfRule type="cellIs" dxfId="129" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="171" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124">
-    <cfRule type="cellIs" dxfId="128" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="172" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="127" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="166" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D129:D130">
-    <cfRule type="cellIs" dxfId="126" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="160" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:H92 A92 C92 J92:XFD92">
-    <cfRule type="cellIs" dxfId="125" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="146" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="124" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="147" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106 I106:XFD106 C106">
-    <cfRule type="cellIs" dxfId="123" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="145" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="cellIs" dxfId="122" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:F106">
-    <cfRule type="cellIs" dxfId="121" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B65 F62:F65 I62:XFD65">
-    <cfRule type="cellIs" dxfId="120" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="142" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="119" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="133" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="118" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="127" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:XFD108 A108:B108 E108">
-    <cfRule type="cellIs" dxfId="117" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="129" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="116" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="130" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 I129:XFD129">
-    <cfRule type="cellIs" dxfId="115" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="126" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135 C133 I135:XFD135">
-    <cfRule type="cellIs" dxfId="114" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="124" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169:E169">
-    <cfRule type="cellIs" dxfId="113" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="119" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="cellIs" dxfId="112" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="121" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46 C46:XFD46">
-    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D56">
-    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I51">
-    <cfRule type="cellIs" dxfId="109" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="110" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="cellIs" dxfId="108" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="109" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88 G88:H88 D88:E88 J88:XFD88">
-    <cfRule type="cellIs" dxfId="107" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="108" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="cellIs" dxfId="106" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="107" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120 I120:XFD123 D122:F122 E121">
-    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120">
-    <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="103" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="cellIs" dxfId="103" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="102" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133:G133">
-    <cfRule type="cellIs" dxfId="101" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="100" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="cellIs" dxfId="100" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="99" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:G23 A7:C7 H26 A26:C26 A9:C9 J17:XFD17 H40:H41 G39:H39 C37 E37 H36 A36:B37 J20:XFD20 G20 A20:C20 G14:G15 E39:E42 G42:H42 G37:H37 A24:E25 C29:E30 A3:E6 G6:H6 A39:C42 G3:G5 A10 G24:G25 A27:H28 H38 H43 J3:XFD6 J36:XFD37 J39:XFD42 J23:XFD28">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="97" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43 D38">
-    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 E9:H10 G7:H7 H8 J7:XFD7 J9:XFD10">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="94" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 J8:XFD8">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="93" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112 E112 A110:C111 I110:XFD111 E110:G111">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108 F108:I108">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18 G18 J18:XFD18">
-    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="78" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41">
-    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="64" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="cellIs" dxfId="52" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="51" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13 I31 I44">
-    <cfRule type="cellIs" dxfId="49" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 I28">
-    <cfRule type="cellIs" dxfId="48" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="cellIs" dxfId="46" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="43" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="42" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="29" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I12">
-    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42425,16 +42445,16 @@
       <selection activeCell="A48" sqref="A48:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6"/>
-    <col min="4" max="4" width="49.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6"/>
+    <col min="4" max="4" width="49.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="16" width="10.125" style="6"/>
-    <col min="17" max="16384" width="10.125" style="5"/>
+    <col min="7" max="16" width="10.1640625" style="6"/>
+    <col min="17" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -43368,7 +43388,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:16" ht="33">
+    <row r="49" spans="1:16" ht="32">
       <c r="A49" s="7"/>
       <c r="B49" s="9" t="s">
         <v>213</v>
@@ -43387,7 +43407,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="33">
+    <row r="50" spans="1:16" ht="32">
       <c r="B50" s="9" t="s">
         <v>215</v>
       </c>
@@ -43405,7 +43425,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="33">
+    <row r="51" spans="1:16" ht="32">
       <c r="A51" s="7"/>
       <c r="B51" s="9" t="s">
         <v>216</v>
@@ -44006,17 +44026,17 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A62:F1048576 A48:F53 A29 C29 A1:F27 A28:C28 A30:C42 E28:F38 G1:XFD1048576 E39:E42 A43:E47 F39:F47">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B61">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D42">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44065,12 +44085,12 @@
       <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25">
+    <row r="1" spans="1:9">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>332</v>
       </c>
@@ -44086,7 +44106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -44105,7 +44125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
@@ -44124,7 +44144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="4" t="s">
         <v>210</v>
       </c>
@@ -44143,7 +44163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -44155,7 +44175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -44166,7 +44186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25">
+    <row r="8" spans="1:9">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -44177,7 +44197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25">
+    <row r="9" spans="1:9">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -44188,7 +44208,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -44199,7 +44219,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -44210,7 +44230,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -44221,7 +44241,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -44232,7 +44252,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -44243,7 +44263,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -44254,7 +44274,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -44265,7 +44285,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -44276,7 +44296,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -44285,7 +44305,7 @@
       <c r="F18" s="69"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="17.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -44294,7 +44314,7 @@
       <c r="F19" s="69"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="17.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -44303,7 +44323,7 @@
       <c r="F20" s="69"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="17.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -44312,7 +44332,7 @@
       <c r="F21" s="69"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -44321,7 +44341,7 @@
       <c r="F22" s="69"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -44330,7 +44350,7 @@
       <c r="F23" s="69"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="17.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -44339,7 +44359,7 @@
       <c r="F24" s="69"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9" ht="17.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -44348,7 +44368,7 @@
       <c r="F25" s="69"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" ht="17.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -44359,12 +44379,12 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 G2:G5 I1:I25 E2:E26 F3:F26">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
